--- a/yabuki-a/PM演習矢吹a/リスク登録簿.xlsx
+++ b/yabuki-a/PM演習矢吹a/リスク登録簿.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,18 +9,261 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="OLE_LINK1" localSheetId="0">Sheet1!$A$1</definedName>
+  </definedNames>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
+  <si>
+    <t>No．</t>
+  </si>
+  <si>
+    <t>リスク情報</t>
+  </si>
+  <si>
+    <t>リスク評価</t>
+  </si>
+  <si>
+    <t>対応策</t>
+  </si>
+  <si>
+    <t>リスク名称</t>
+  </si>
+  <si>
+    <t>RBS</t>
+  </si>
+  <si>
+    <t>分野</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>発生</t>
+  </si>
+  <si>
+    <t>確率</t>
+  </si>
+  <si>
+    <t>影響</t>
+  </si>
+  <si>
+    <t>度</t>
+  </si>
+  <si>
+    <t>評価</t>
+  </si>
+  <si>
+    <t>値</t>
+  </si>
+  <si>
+    <t>順位</t>
+  </si>
+  <si>
+    <t>方針</t>
+  </si>
+  <si>
+    <t>実施内容</t>
+  </si>
+  <si>
+    <t>担当</t>
+  </si>
+  <si>
+    <t>期限</t>
+  </si>
+  <si>
+    <t>ユーザ多忙</t>
+  </si>
+  <si>
+    <t>外部</t>
+  </si>
+  <si>
+    <t>ユーザとの予定が合わないため,成果物のレビューが行えず次のタスクに進めない．</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>0,28</t>
+  </si>
+  <si>
+    <t>回避</t>
+  </si>
+  <si>
+    <t>ユーザにアポイントメールを送る際,複数の日時を明記する．</t>
+  </si>
+  <si>
+    <t>若月</t>
+  </si>
+  <si>
+    <t>毎回</t>
+  </si>
+  <si>
+    <t>シニア多忙</t>
+  </si>
+  <si>
+    <t>シニアとの予定が合わないため,成果物のレビューが行えず次のタスクに進めない．</t>
+  </si>
+  <si>
+    <t>シニアにアポイントメールを送る際,複数の日時を明記する．</t>
+  </si>
+  <si>
+    <t>見積もり過小評価</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>見積もり過小評価で,コストが(作業時間)超過する．</t>
+  </si>
+  <si>
+    <t>毎週見積もりを見直す．</t>
+  </si>
+  <si>
+    <t>毎週</t>
+  </si>
+  <si>
+    <t>メンバの知識不足</t>
+  </si>
+  <si>
+    <t>技術</t>
+  </si>
+  <si>
+    <t>メンバの知識が不足しているため,タスクに着手する前に学習時間が発生する．</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>軽減</t>
+  </si>
+  <si>
+    <t>参考書を用いる</t>
+  </si>
+  <si>
+    <t>斎藤</t>
+  </si>
+  <si>
+    <t>メンバの怪我・病気</t>
+  </si>
+  <si>
+    <t>組織</t>
+  </si>
+  <si>
+    <t>メンバの体調不良により,そのメンバの担当している作業に遅れが出る．</t>
+  </si>
+  <si>
+    <t>最低</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>メンバの体調管理を促す．</t>
+  </si>
+  <si>
+    <t>欠席者が出た場合,タスクの割り当てを再び行う．</t>
+  </si>
+  <si>
+    <t>森谷</t>
+  </si>
+  <si>
+    <t>納期遅れ</t>
+  </si>
+  <si>
+    <t>成果物の納期が遅れることで,プロジェクト完了予定に間に合わなくなる．</t>
+  </si>
+  <si>
+    <t>ガントチャートによる進捗管理を行い,日程調整を行う．</t>
+  </si>
+  <si>
+    <t>データの紛失</t>
+  </si>
+  <si>
+    <t>作成途中の成果物のデータを紛失することで,プロジェクトに遅れが出る．</t>
+  </si>
+  <si>
+    <t>GitHubを使って管理する．</t>
+  </si>
+  <si>
+    <t>成果物の紛失</t>
+  </si>
+  <si>
+    <t>成果物そのものを紛失してしまうことにより,プロジェクトに遅れが出る．</t>
+  </si>
+  <si>
+    <t>成果物を一括しPMが管理する．</t>
+  </si>
+  <si>
+    <t>ユーザ,シニアに成果物の承認をしに行くとき以外は,作業場所以外の場所に成果物を持ち出さない．</t>
+  </si>
+  <si>
+    <t>手戻りによる遅延</t>
+  </si>
+  <si>
+    <t>工程の手戻りにより,プロジェクトに遅れが出る．</t>
+  </si>
+  <si>
+    <t>スケジュールの再編成を行う．</t>
+  </si>
+  <si>
+    <t>森谷t</t>
+  </si>
+  <si>
+    <t>メンバの無断欠席</t>
+  </si>
+  <si>
+    <t>メンバの無断欠席により,そのメンバが担当していた作業に遅れが出る．</t>
+  </si>
+  <si>
+    <t>欠席・遅刻等の連絡を徹底する．</t>
+  </si>
+  <si>
+    <t>欠席者に欠席中の進捗状況を伝える．</t>
+  </si>
+  <si>
+    <t>メンバの遅刻</t>
+  </si>
+  <si>
+    <t>メンバが集合時間に遅刻することで,そのメンバの作業に遅れが出る．</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -32,7 +275,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -40,23 +283,191 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -98,7 +509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +544,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +752,635 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="A1:L18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A2" s="9"/>
+      <c r="B2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+    </row>
+    <row r="4" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
+        <v>5</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="15">
+        <v>11</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="48.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H10" s="5">
+        <v>6</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="H11" s="5">
+        <v>8</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="36" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
+        <v>8</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0.12</v>
+      </c>
+      <c r="H12" s="15">
+        <v>7</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>9</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H14" s="5">
+        <v>4</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.15">
+      <c r="A15" s="19">
+        <v>10</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="15">
+        <v>10</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L15" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.15">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+    </row>
+    <row r="17" spans="1:12" ht="48.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="20"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+    </row>
+    <row r="18" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="H18" s="5">
+        <v>9</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="44">
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+  </mergeCells>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/yabuki-a/PM演習矢吹a/リスク登録簿.xlsx
+++ b/yabuki-a/PM演習矢吹a/リスク登録簿.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -211,9 +211,6 @@
     <t>スケジュールの再編成を行う．</t>
   </si>
   <si>
-    <t>森谷t</t>
-  </si>
-  <si>
     <t>メンバの無断欠席</t>
   </si>
   <si>
@@ -230,6 +227,10 @@
   </si>
   <si>
     <t>メンバが集合時間に遅刻することで,そのメンバの作業に遅れが出る．</t>
+  </si>
+  <si>
+    <t>森谷</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -404,50 +405,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,52 +756,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="A1:L18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="12" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="13"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="8" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="19"/>
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -812,29 +813,29 @@
       <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+    <row r="3" spans="1:12" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
@@ -844,13 +845,13 @@
       <c r="G3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-    </row>
-    <row r="4" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -888,7 +889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -926,7 +927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -964,7 +965,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="48.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -1002,61 +1003,61 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="24" x14ac:dyDescent="0.15">
-      <c r="A8" s="15">
+    <row r="8" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="8">
         <v>0.01</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="8">
         <v>11</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="8" t="s">
         <v>40</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+    <row r="9" spans="1:12" ht="60.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-    </row>
-    <row r="10" spans="1:12" ht="60.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+    </row>
+    <row r="10" spans="1:12" ht="60.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1094,7 +1095,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="48.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -1132,61 +1133,61 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A12" s="15">
+    <row r="12" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="8">
         <v>0.12</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="8">
         <v>7</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="8" t="s">
         <v>40</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="108.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+    <row r="13" spans="1:12" ht="108.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-    </row>
-    <row r="14" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" ht="36.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>9</v>
       </c>
@@ -1218,94 +1219,94 @@
         <v>63</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.15">
-      <c r="A15" s="19">
+    <row r="15" spans="1:12" ht="36" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
         <v>10</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="17" t="s">
+      <c r="E15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="8">
+        <v>10</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="H15" s="15">
-        <v>10</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+    <row r="16" spans="1:12" ht="60" x14ac:dyDescent="0.2">
+      <c r="A16" s="15"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" ht="48.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" spans="1:12" ht="48.6" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-    </row>
-    <row r="18" spans="1:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+    </row>
+    <row r="18" spans="1:12" ht="48.6" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>47</v>
@@ -1323,7 +1324,7 @@
         <v>40</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K18" s="4" t="s">
         <v>42</v>
@@ -1334,30 +1335,10 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="K15:K17"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D15:D17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
@@ -1374,10 +1355,30 @@
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
